--- a/reports/Debug-snowbowl-20251217/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/Week Total (Prior Year)_Visits.xlsx
@@ -37,10 +37,10 @@
     <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>523</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="C7" s="2">
-        <v>602</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>45644</v>
+        <v>45647</v>
       </c>
       <c r="C8" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,10 +532,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>45645</v>
+        <v>45647</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>45645</v>
+        <v>45647</v>
       </c>
       <c r="C10" s="2">
-        <v>607</v>
+        <v>254</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>45645</v>
+        <v>45648</v>
       </c>
       <c r="C11" s="2">
-        <v>1230</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>45648</v>
+        <v>45642</v>
       </c>
       <c r="C12" s="2">
-        <v>903</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>45648</v>
+        <v>45642</v>
       </c>
       <c r="C13" s="2">
-        <v>1613</v>
+        <v>1096</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="C14" s="2">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>45644</v>
+        <v>45643</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="C16" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>45647</v>
+        <v>45646</v>
       </c>
       <c r="C18" s="2">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>45648</v>
+        <v>45647</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,7 +689,7 @@
         <v>45648</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -700,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -717,10 +717,10 @@
         <v>45642</v>
       </c>
       <c r="C22" s="2">
-        <v>1096</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,10 +731,10 @@
         <v>45643</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>1155</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,10 +745,10 @@
         <v>45643</v>
       </c>
       <c r="C24" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>45645</v>
+        <v>45644</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -770,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>45646</v>
+        <v>45645</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -787,10 +787,10 @@
         <v>45646</v>
       </c>
       <c r="C27" s="2">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>45647</v>
+        <v>45646</v>
       </c>
       <c r="C28" s="2">
-        <v>154</v>
+        <v>936</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -812,13 +812,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>45648</v>
+        <v>45646</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>45648</v>
+        <v>45647</v>
       </c>
       <c r="C30" s="2">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -840,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,7 +857,7 @@
         <v>45644</v>
       </c>
       <c r="C32" s="2">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>45646</v>
+        <v>45644</v>
       </c>
       <c r="C33" s="2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -882,10 +882,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>45646</v>
+        <v>45645</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -899,7 +899,7 @@
         <v>45647</v>
       </c>
       <c r="C35" s="2">
-        <v>890</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -910,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="C36" s="2">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -924,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <v>45643</v>
+        <v>45648</v>
       </c>
       <c r="C37" s="2">
-        <v>1155</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,10 +941,10 @@
         <v>45643</v>
       </c>
       <c r="C38" s="2">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,7 +955,7 @@
         <v>45644</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
+        <v>547</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -966,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="C40" s="2">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -983,7 +983,7 @@
         <v>45646</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -994,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="C42" s="2">
-        <v>936</v>
+        <v>890</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="C43" s="2">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>45647</v>
+        <v>45642</v>
       </c>
       <c r="C44" s="2">
-        <v>5</v>
+        <v>602</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="C45" s="2">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="C46" s="2">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1064,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="C47" s="2">
-        <v>1245</v>
+        <v>607</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,7 +1081,7 @@
         <v>45645</v>
       </c>
       <c r="C48" s="2">
-        <v>81</v>
+        <v>1230</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>7</v>
@@ -1092,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="2">
-        <v>45646</v>
+        <v>45648</v>
       </c>
       <c r="C49" s="2">
-        <v>78</v>
+        <v>903</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1106,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>45646</v>
+        <v>45648</v>
       </c>
       <c r="C50" s="2">
-        <v>929</v>
+        <v>1613</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <v>45647</v>
+        <v>45642</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="2">
-        <v>45647</v>
+        <v>45643</v>
       </c>
       <c r="C52" s="2">
-        <v>1531</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <v>45648</v>
+        <v>45644</v>
       </c>
       <c r="C53" s="2">
-        <v>16</v>
+        <v>1245</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <v>45648</v>
+        <v>45645</v>
       </c>
       <c r="C54" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="C55" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1190,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="C56" s="2">
-        <v>85</v>
+        <v>929</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1207,7 +1207,7 @@
         <v>45647</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1221,10 +1221,10 @@
         <v>45647</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>1531</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="2">
-        <v>45647</v>
+        <v>45648</v>
       </c>
       <c r="C59" s="2">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1249,10 +1249,10 @@
         <v>45648</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
